--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CE51E5-4B25-4ADB-AAC0-E174AFC195FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6D067-434B-4DFB-AD0A-9AD738355586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>RAFTID</t>
   </si>
@@ -148,7 +148,13 @@
     <t>test9@hotmail.com</t>
   </si>
   <si>
-    <t>test1@hotmail.com</t>
+    <t>test1@hotmail.es</t>
+  </si>
+  <si>
+    <t>erwre</t>
+  </si>
+  <si>
+    <t>dirección</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -444,7 +450,7 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,13 +472,16 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -481,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>27355468</v>
+        <v>27355465</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>42</v>
@@ -489,8 +498,11 @@
       <c r="G2">
         <v>602334054</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>602334054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -512,8 +524,11 @@
       <c r="G3">
         <v>123456789</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -535,8 +550,11 @@
       <c r="G4">
         <v>233456787</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>233456787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -558,8 +576,11 @@
       <c r="G5">
         <v>123434565</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>123434565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -581,8 +602,11 @@
       <c r="G6">
         <v>234344445</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>234344445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -604,8 +628,11 @@
       <c r="G7">
         <v>345555556</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>345555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -627,8 +654,11 @@
       <c r="G8">
         <v>111111112</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>111111112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -650,8 +680,11 @@
       <c r="G9">
         <v>454545454</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>454545454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -671,6 +704,9 @@
         <v>41</v>
       </c>
       <c r="G10">
+        <v>654323211</v>
+      </c>
+      <c r="H10">
         <v>654323211</v>
       </c>
     </row>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B6D067-434B-4DFB-AD0A-9AD738355586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D343BF04-D3DE-49EB-902A-544C6EA1A2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3075" yWindow="3075" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>RAFTID</t>
   </si>
@@ -149,12 +149,6 @@
   </si>
   <si>
     <t>test1@hotmail.es</t>
-  </si>
-  <si>
-    <t>erwre</t>
-  </si>
-  <si>
-    <t>dirección</t>
   </si>
 </sst>
 </file>
@@ -438,10 +432,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -450,7 +444,7 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,16 +466,13 @@
       <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -498,11 +489,8 @@
       <c r="G2">
         <v>602334054</v>
       </c>
-      <c r="H2">
-        <v>602334054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -524,11 +512,8 @@
       <c r="G3">
         <v>123456789</v>
       </c>
-      <c r="H3">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -550,11 +535,8 @@
       <c r="G4">
         <v>233456787</v>
       </c>
-      <c r="H4">
-        <v>233456787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -576,11 +558,8 @@
       <c r="G5">
         <v>123434565</v>
       </c>
-      <c r="H5">
-        <v>123434565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -602,11 +581,8 @@
       <c r="G6">
         <v>234344445</v>
       </c>
-      <c r="H6">
-        <v>234344445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -628,11 +604,8 @@
       <c r="G7">
         <v>345555556</v>
       </c>
-      <c r="H7">
-        <v>345555556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -654,11 +627,8 @@
       <c r="G8">
         <v>111111112</v>
       </c>
-      <c r="H8">
-        <v>111111112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -680,11 +650,8 @@
       <c r="G9">
         <v>454545454</v>
       </c>
-      <c r="H9">
-        <v>454545454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -704,9 +671,6 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <v>654323211</v>
-      </c>
-      <c r="H10">
         <v>654323211</v>
       </c>
     </row>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D343BF04-D3DE-49EB-902A-544C6EA1A2EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15298F0E-05C3-4AB4-AE92-EA10A82F4E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>test9@hotmail.com</t>
   </si>
   <si>
-    <t>test1@hotmail.es</t>
+    <t>test1@hotmail</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15298F0E-05C3-4AB4-AE92-EA10A82F4E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F64C67-2C07-4EEE-A359-429FF4E07A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1305" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>RAFTID</t>
   </si>
@@ -148,7 +148,10 @@
     <t>test9@hotmail.com</t>
   </si>
   <si>
-    <t>test1@hotmail</t>
+    <t>test1@hotmail.com</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -471,8 +474,8 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F64C67-2C07-4EEE-A359-429FF4E07A6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C786988A-A7C6-4C75-8ECD-29680164B711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1305" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="E2">
-        <v>27355465</v>
+        <v>2227355465</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>42</v>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C786988A-A7C6-4C75-8ECD-29680164B711}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA6CCE-049C-4B8D-93A2-FE571DDF56D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>RAFTID</t>
   </si>
@@ -34,81 +34,54 @@
     <t>ResponseInfo</t>
   </si>
   <si>
-    <t>RAFID219886</t>
-  </si>
-  <si>
     <t>301198861003722020</t>
   </si>
   <si>
     <t>192.168.1.1</t>
   </si>
   <si>
-    <t>RAFID219887</t>
-  </si>
-  <si>
     <t>301198861003722021</t>
   </si>
   <si>
     <t>192.168.1.2</t>
   </si>
   <si>
-    <t>RAFID219888</t>
-  </si>
-  <si>
     <t>301198861003722022</t>
   </si>
   <si>
     <t>192.168.1.3</t>
   </si>
   <si>
-    <t>RAFID219889</t>
-  </si>
-  <si>
     <t>301198861003722023</t>
   </si>
   <si>
     <t>192.168.1.4</t>
   </si>
   <si>
-    <t>RAFID219890</t>
-  </si>
-  <si>
     <t>301198861003722024</t>
   </si>
   <si>
     <t>192.168.1.5</t>
   </si>
   <si>
-    <t>RAFID219891</t>
-  </si>
-  <si>
     <t>301198861003722025</t>
   </si>
   <si>
     <t>192.168.1.6</t>
   </si>
   <si>
-    <t>RAFID219892</t>
-  </si>
-  <si>
     <t>301198861003722026</t>
   </si>
   <si>
     <t>192.168.1.7</t>
   </si>
   <si>
-    <t>RAFID219893</t>
-  </si>
-  <si>
     <t>301198861003722027</t>
   </si>
   <si>
     <t>192.168.1.8</t>
   </si>
   <si>
-    <t>RAFID219894</t>
-  </si>
-  <si>
     <t>301198861003722028</t>
   </si>
   <si>
@@ -151,7 +124,31 @@
     <t>test1@hotmail.com</t>
   </si>
   <si>
-    <t>sss</t>
+    <t>RAFID21988</t>
+  </si>
+  <si>
+    <t>RAFID219881</t>
+  </si>
+  <si>
+    <t>RAFID219882</t>
+  </si>
+  <si>
+    <t>RAFID21982666</t>
+  </si>
+  <si>
+    <t>RAFID21981777</t>
+  </si>
+  <si>
+    <t>RAFID21989888</t>
+  </si>
+  <si>
+    <t>RAFID21989999</t>
+  </si>
+  <si>
+    <t>RAFID2195552</t>
+  </si>
+  <si>
+    <t>RAFID2198942</t>
   </si>
 </sst>
 </file>
@@ -438,7 +435,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -461,33 +458,33 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>2227355465</v>
+        <v>27355465</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>602334054</v>
@@ -495,22 +492,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>27355588</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>123456789</v>
@@ -518,22 +515,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>27355488</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G4">
         <v>233456787</v>
@@ -541,22 +538,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>27359488</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G5">
         <v>123434565</v>
@@ -564,22 +561,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>27355888</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>234344445</v>
@@ -587,22 +584,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>27353488</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>345555556</v>
@@ -610,22 +607,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>21355488</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>111111112</v>
@@ -633,22 +630,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>22355488</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>454545454</v>
@@ -656,22 +653,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>24355488</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>654323211</v>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA6CCE-049C-4B8D-93A2-FE571DDF56D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79941A0E-2254-412F-BD1E-DB77745483C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="17280" windowHeight="8955" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -121,9 +121,6 @@
     <t>test9@hotmail.com</t>
   </si>
   <si>
-    <t>test1@hotmail.com</t>
-  </si>
-  <si>
     <t>RAFID21988</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>RAFID2198942</t>
+  </si>
+  <si>
+    <t>test1@hotmail</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>27355465</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>602334054</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="b">
         <v>1</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="b">
         <v>1</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>

--- a/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
+++ b/builk-uploads-api/File/uploads/RAFT Notifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvivas\Desktop\Sprofesional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79941A0E-2254-412F-BD1E-DB77745483C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CAA366-9472-4D43-9700-DE0C46B7D224}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="17280" windowHeight="8955" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18900" windowHeight="11055" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>RAFID2198942</t>
   </si>
   <si>
-    <t>test1@hotmail</t>
+    <t>test1@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
